--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09162908077553</v>
+        <v>1.666628</v>
       </c>
       <c r="H2">
-        <v>1.09162908077553</v>
+        <v>4.999884</v>
       </c>
       <c r="I2">
-        <v>0.02573489259901546</v>
+        <v>0.03622367550391625</v>
       </c>
       <c r="J2">
-        <v>0.02573489259901546</v>
+        <v>0.03870905376456953</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N2">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O2">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P2">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q2">
-        <v>5.630507737856981</v>
+        <v>8.972800715082668</v>
       </c>
       <c r="R2">
-        <v>5.630507737856981</v>
+        <v>80.755206435744</v>
       </c>
       <c r="S2">
-        <v>0.000947758376003405</v>
+        <v>0.001339729581494036</v>
       </c>
       <c r="T2">
-        <v>0.000947758376003405</v>
+        <v>0.001479584253041588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09162908077553</v>
+        <v>1.666628</v>
       </c>
       <c r="H3">
-        <v>1.09162908077553</v>
+        <v>4.999884</v>
       </c>
       <c r="I3">
-        <v>0.02573489259901546</v>
+        <v>0.03622367550391625</v>
       </c>
       <c r="J3">
-        <v>0.02573489259901546</v>
+        <v>0.03870905376456953</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N3">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P3">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q3">
-        <v>36.06516801906083</v>
+        <v>58.94681629102266</v>
       </c>
       <c r="R3">
-        <v>36.06516801906083</v>
+        <v>530.521346619204</v>
       </c>
       <c r="S3">
-        <v>0.006070689654188208</v>
+        <v>0.008801353783242923</v>
       </c>
       <c r="T3">
-        <v>0.006070689654188208</v>
+        <v>0.009720129079042955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09162908077553</v>
+        <v>1.666628</v>
       </c>
       <c r="H4">
-        <v>1.09162908077553</v>
+        <v>4.999884</v>
       </c>
       <c r="I4">
-        <v>0.02573489259901546</v>
+        <v>0.03622367550391625</v>
       </c>
       <c r="J4">
-        <v>0.02573489259901546</v>
+        <v>0.03870905376456953</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N4">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O4">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P4">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q4">
-        <v>41.66827927627843</v>
+        <v>67.08492637137732</v>
       </c>
       <c r="R4">
-        <v>41.66827927627843</v>
+        <v>603.7643373423959</v>
       </c>
       <c r="S4">
-        <v>0.007013836502207306</v>
+        <v>0.01001645564032295</v>
       </c>
       <c r="T4">
-        <v>0.007013836502207306</v>
+        <v>0.01106207569156179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09162908077553</v>
+        <v>1.666628</v>
       </c>
       <c r="H5">
-        <v>1.09162908077553</v>
+        <v>4.999884</v>
       </c>
       <c r="I5">
-        <v>0.02573489259901546</v>
+        <v>0.03622367550391625</v>
       </c>
       <c r="J5">
-        <v>0.02573489259901546</v>
+        <v>0.03870905376456953</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N5">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O5">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P5">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q5">
-        <v>54.22266671982752</v>
+        <v>84.02372615988267</v>
       </c>
       <c r="R5">
-        <v>54.22266671982752</v>
+        <v>756.2135354389439</v>
       </c>
       <c r="S5">
-        <v>0.009127060816813134</v>
+        <v>0.01254558917089601</v>
       </c>
       <c r="T5">
-        <v>0.009127060816813134</v>
+        <v>0.0138552260387403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09162908077553</v>
+        <v>1.666628</v>
       </c>
       <c r="H6">
-        <v>1.09162908077553</v>
+        <v>4.999884</v>
       </c>
       <c r="I6">
-        <v>0.02573489259901546</v>
+        <v>0.03622367550391625</v>
       </c>
       <c r="J6">
-        <v>0.02573489259901546</v>
+        <v>0.03870905376456953</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N6">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O6">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P6">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q6">
-        <v>15.30098713596833</v>
+        <v>23.57876545995</v>
       </c>
       <c r="R6">
-        <v>15.30098713596833</v>
+        <v>141.4725927597</v>
       </c>
       <c r="S6">
-        <v>0.002575547249803405</v>
+        <v>0.003520547327960334</v>
       </c>
       <c r="T6">
-        <v>0.002575547249803405</v>
+        <v>0.002592038702182893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.3238186029145</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H7">
-        <v>30.3238186029145</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I7">
-        <v>0.7148767183663001</v>
+        <v>0.6966773233034315</v>
       </c>
       <c r="J7">
-        <v>0.7148767183663001</v>
+        <v>0.7444777369815315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N7">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O7">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P7">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q7">
-        <v>156.4070601378476</v>
+        <v>172.5707482125351</v>
       </c>
       <c r="R7">
-        <v>156.4070601378476</v>
+        <v>1553.136733912816</v>
       </c>
       <c r="S7">
-        <v>0.02632730620633748</v>
+        <v>0.02576655200781001</v>
       </c>
       <c r="T7">
-        <v>0.02632730620633748</v>
+        <v>0.02845632815199767</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.3238186029145</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H8">
-        <v>30.3238186029145</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I8">
-        <v>0.7148767183663001</v>
+        <v>0.6966773233034315</v>
       </c>
       <c r="J8">
-        <v>0.7148767183663001</v>
+        <v>0.7444777369815315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N8">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P8">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q8">
-        <v>1001.836275849925</v>
+        <v>1133.703568718445</v>
       </c>
       <c r="R8">
-        <v>1001.836275849925</v>
+        <v>10203.33211846601</v>
       </c>
       <c r="S8">
-        <v>0.1686346535742816</v>
+        <v>0.1692733691392883</v>
       </c>
       <c r="T8">
-        <v>0.1686346535742816</v>
+        <v>0.1869438541160566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.3238186029145</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H9">
-        <v>30.3238186029145</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I9">
-        <v>0.7148767183663001</v>
+        <v>0.6966773233034315</v>
       </c>
       <c r="J9">
-        <v>0.7148767183663001</v>
+        <v>0.7444777369815315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N9">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O9">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P9">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q9">
-        <v>1157.482302845749</v>
+        <v>1290.221002928488</v>
       </c>
       <c r="R9">
-        <v>1157.482302845749</v>
+        <v>11611.98902635639</v>
       </c>
       <c r="S9">
-        <v>0.1948338584497357</v>
+        <v>0.1926429995689784</v>
       </c>
       <c r="T9">
-        <v>0.1948338584497357</v>
+        <v>0.2127530455087041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.3238186029145</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H10">
-        <v>30.3238186029145</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I10">
-        <v>0.7148767183663001</v>
+        <v>0.6966773233034315</v>
       </c>
       <c r="J10">
-        <v>0.7148767183663001</v>
+        <v>0.7444777369815315</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N10">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O10">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P10">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q10">
-        <v>1506.224356546288</v>
+        <v>1615.999034353068</v>
       </c>
       <c r="R10">
-        <v>1506.224356546288</v>
+        <v>14543.99130917762</v>
       </c>
       <c r="S10">
-        <v>0.2535360604264823</v>
+        <v>0.2412849431002499</v>
       </c>
       <c r="T10">
-        <v>0.2535360604264823</v>
+        <v>0.266472732436829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.3238186029145</v>
+        <v>32.05367533333333</v>
       </c>
       <c r="H11">
-        <v>30.3238186029145</v>
+        <v>96.16102599999999</v>
       </c>
       <c r="I11">
-        <v>0.7148767183663001</v>
+        <v>0.6966773233034315</v>
       </c>
       <c r="J11">
-        <v>0.7148767183663001</v>
+        <v>0.7444777369815315</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N11">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O11">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P11">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q11">
-        <v>425.0384737158174</v>
+        <v>453.482176474925</v>
       </c>
       <c r="R11">
-        <v>425.0384737158174</v>
+        <v>2720.89305884955</v>
       </c>
       <c r="S11">
-        <v>0.07154483970946303</v>
+        <v>0.06770945948710494</v>
       </c>
       <c r="T11">
-        <v>0.07154483970946303</v>
+        <v>0.04985177676794409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.06304836958088</v>
+        <v>1.71986</v>
       </c>
       <c r="H12">
-        <v>1.06304836958088</v>
+        <v>5.15958</v>
       </c>
       <c r="I12">
-        <v>0.02506110921787352</v>
+        <v>0.03738065756255469</v>
       </c>
       <c r="J12">
-        <v>0.02506110921787352</v>
+        <v>0.0399454186582324</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N12">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O12">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P12">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q12">
-        <v>5.483091442002526</v>
+        <v>9.259391440586667</v>
       </c>
       <c r="R12">
-        <v>5.483091442002526</v>
+        <v>83.33452296528</v>
       </c>
       <c r="S12">
-        <v>0.0009229444452425829</v>
+        <v>0.001382520465291795</v>
       </c>
       <c r="T12">
-        <v>0.0009229444452425829</v>
+        <v>0.001526842086798077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.06304836958088</v>
+        <v>1.71986</v>
       </c>
       <c r="H13">
-        <v>1.06304836958088</v>
+        <v>5.15958</v>
       </c>
       <c r="I13">
-        <v>0.02506110921787352</v>
+        <v>0.03738065756255469</v>
       </c>
       <c r="J13">
-        <v>0.02506110921787352</v>
+        <v>0.0399454186582324</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N13">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O13">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P13">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q13">
-        <v>35.12092040831834</v>
+        <v>60.82957412588667</v>
       </c>
       <c r="R13">
-        <v>35.12092040831834</v>
+        <v>547.46616713298</v>
       </c>
       <c r="S13">
-        <v>0.005911748644999043</v>
+        <v>0.009082468503858195</v>
       </c>
       <c r="T13">
-        <v>0.005911748644999043</v>
+        <v>0.01003058942840443</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.06304836958088</v>
+        <v>1.71986</v>
       </c>
       <c r="H14">
-        <v>1.06304836958088</v>
+        <v>5.15958</v>
       </c>
       <c r="I14">
-        <v>0.02506110921787352</v>
+        <v>0.03738065756255469</v>
       </c>
       <c r="J14">
-        <v>0.02506110921787352</v>
+        <v>0.0399454186582324</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N14">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O14">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P14">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q14">
-        <v>40.57733265627149</v>
+        <v>69.22761496211332</v>
       </c>
       <c r="R14">
-        <v>40.57733265627149</v>
+        <v>623.04853465902</v>
       </c>
       <c r="S14">
-        <v>0.006830202299925274</v>
+        <v>0.01033638064257041</v>
       </c>
       <c r="T14">
-        <v>0.006830202299925274</v>
+        <v>0.01141539773656117</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.06304836958088</v>
+        <v>1.71986</v>
       </c>
       <c r="H15">
-        <v>1.06304836958088</v>
+        <v>5.15958</v>
       </c>
       <c r="I15">
-        <v>0.02506110921787352</v>
+        <v>0.03738065756255469</v>
       </c>
       <c r="J15">
-        <v>0.02506110921787352</v>
+        <v>0.0399454186582324</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N15">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O15">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P15">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q15">
-        <v>52.80302482404532</v>
+        <v>86.70743901658666</v>
       </c>
       <c r="R15">
-        <v>52.80302482404532</v>
+        <v>780.36695114928</v>
       </c>
       <c r="S15">
-        <v>0.008888098797703107</v>
+        <v>0.01294629454890787</v>
       </c>
       <c r="T15">
-        <v>0.008888098797703107</v>
+        <v>0.0142977611410512</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.06304836958088</v>
+        <v>1.71986</v>
       </c>
       <c r="H16">
-        <v>1.06304836958088</v>
+        <v>5.15958</v>
       </c>
       <c r="I16">
-        <v>0.02506110921787352</v>
+        <v>0.03738065756255469</v>
       </c>
       <c r="J16">
-        <v>0.02506110921787352</v>
+        <v>0.0399454186582324</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N16">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O16">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P16">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q16">
-        <v>14.90038119570199</v>
+        <v>24.33186983775</v>
       </c>
       <c r="R16">
-        <v>14.90038119570199</v>
+        <v>145.9912190265</v>
       </c>
       <c r="S16">
-        <v>0.002508115030003516</v>
+        <v>0.00363299340192644</v>
       </c>
       <c r="T16">
-        <v>0.002508115030003516</v>
+        <v>0.002674828265417519</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.22961843438639</v>
+        <v>1.706874666666667</v>
       </c>
       <c r="H17">
-        <v>1.22961843438639</v>
+        <v>5.120624</v>
       </c>
       <c r="I17">
-        <v>0.02898795836789384</v>
+        <v>0.03709842511417578</v>
       </c>
       <c r="J17">
-        <v>0.02898795836789384</v>
+        <v>0.03964382168149203</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N17">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O17">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P17">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q17">
-        <v>6.342242279314836</v>
+        <v>9.189480933731557</v>
       </c>
       <c r="R17">
-        <v>6.342242279314836</v>
+        <v>82.70532840358401</v>
       </c>
       <c r="S17">
-        <v>0.001067561492269855</v>
+        <v>0.001372082122006894</v>
       </c>
       <c r="T17">
-        <v>0.001067561492269855</v>
+        <v>0.00151531408251608</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.22961843438639</v>
+        <v>1.706874666666667</v>
       </c>
       <c r="H18">
-        <v>1.22961843438639</v>
+        <v>5.120624</v>
       </c>
       <c r="I18">
-        <v>0.02898795836789384</v>
+        <v>0.03709842511417578</v>
       </c>
       <c r="J18">
-        <v>0.02898795836789384</v>
+        <v>0.03964382168149203</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N18">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O18">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P18">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q18">
-        <v>40.62405098623289</v>
+        <v>60.37029703557155</v>
       </c>
       <c r="R18">
-        <v>40.62405098623289</v>
+        <v>543.3326733201441</v>
       </c>
       <c r="S18">
-        <v>0.006838066189044208</v>
+        <v>0.009013893805329187</v>
       </c>
       <c r="T18">
-        <v>0.006838066189044208</v>
+        <v>0.009954856201712931</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.22961843438639</v>
+        <v>1.706874666666667</v>
       </c>
       <c r="H19">
-        <v>1.22961843438639</v>
+        <v>5.120624</v>
       </c>
       <c r="I19">
-        <v>0.02898795836789384</v>
+        <v>0.03709842511417578</v>
       </c>
       <c r="J19">
-        <v>0.02898795836789384</v>
+        <v>0.03964382168149203</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N19">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O19">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P19">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q19">
-        <v>46.93543368308996</v>
+        <v>68.70493075749511</v>
       </c>
       <c r="R19">
-        <v>46.93543368308996</v>
+        <v>618.344376817456</v>
       </c>
       <c r="S19">
-        <v>0.007900433224771951</v>
+        <v>0.01025833862281066</v>
       </c>
       <c r="T19">
-        <v>0.007900433224771951</v>
+        <v>0.0113292088928519</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.22961843438639</v>
+        <v>1.706874666666667</v>
       </c>
       <c r="H20">
-        <v>1.22961843438639</v>
+        <v>5.120624</v>
       </c>
       <c r="I20">
-        <v>0.02898795836789384</v>
+        <v>0.03709842511417578</v>
       </c>
       <c r="J20">
-        <v>0.02898795836789384</v>
+        <v>0.03964382168149203</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N20">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O20">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P20">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q20">
-        <v>61.07678123866255</v>
+        <v>86.05277817319822</v>
       </c>
       <c r="R20">
-        <v>61.07678123866255</v>
+        <v>774.475003558784</v>
       </c>
       <c r="S20">
-        <v>0.0102807834911709</v>
+        <v>0.01284854708681846</v>
       </c>
       <c r="T20">
-        <v>0.0102807834911709</v>
+        <v>0.01418980979946705</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.22961843438639</v>
+        <v>1.706874666666667</v>
       </c>
       <c r="H21">
-        <v>1.22961843438639</v>
+        <v>5.120624</v>
       </c>
       <c r="I21">
-        <v>0.02898795836789384</v>
+        <v>0.03709842511417578</v>
       </c>
       <c r="J21">
-        <v>0.02898795836789384</v>
+        <v>0.03964382168149203</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N21">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O21">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P21">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q21">
-        <v>17.23513616303563</v>
+        <v>24.1481586982</v>
       </c>
       <c r="R21">
-        <v>17.23513616303563</v>
+        <v>144.8889521892</v>
       </c>
       <c r="S21">
-        <v>0.002901113970636926</v>
+        <v>0.003605563477210583</v>
       </c>
       <c r="T21">
-        <v>0.002901113970636926</v>
+        <v>0.002654632704944069</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.710134454920089</v>
+        <v>8.862318500000001</v>
       </c>
       <c r="H22">
-        <v>8.710134454920089</v>
+        <v>17.724637</v>
       </c>
       <c r="I22">
-        <v>0.2053393214489172</v>
+        <v>0.1926199185159219</v>
       </c>
       <c r="J22">
-        <v>0.2053393214489172</v>
+        <v>0.1372239689141745</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N22">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O22">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P22">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q22">
-        <v>44.92595544574613</v>
+        <v>47.71299760599867</v>
       </c>
       <c r="R22">
-        <v>44.92595544574613</v>
+        <v>286.277985635992</v>
       </c>
       <c r="S22">
-        <v>0.007562186672327989</v>
+        <v>0.007124031430572304</v>
       </c>
       <c r="T22">
-        <v>0.007562186672327989</v>
+        <v>0.005245140446474017</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.710134454920089</v>
+        <v>8.862318500000001</v>
       </c>
       <c r="H23">
-        <v>8.710134454920089</v>
+        <v>17.724637</v>
       </c>
       <c r="I23">
-        <v>0.2053393214489172</v>
+        <v>0.1926199185159219</v>
       </c>
       <c r="J23">
-        <v>0.2053393214489172</v>
+        <v>0.1372239689141745</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N23">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O23">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P23">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q23">
-        <v>287.7648352516713</v>
+        <v>313.4505483719412</v>
       </c>
       <c r="R23">
-        <v>287.7648352516713</v>
+        <v>1880.703290231647</v>
       </c>
       <c r="S23">
-        <v>0.04843817744806356</v>
+        <v>0.04680132606573198</v>
       </c>
       <c r="T23">
-        <v>0.04843817744806356</v>
+        <v>0.03445795132830696</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.710134454920089</v>
+        <v>8.862318500000001</v>
       </c>
       <c r="H24">
-        <v>8.710134454920089</v>
+        <v>17.724637</v>
       </c>
       <c r="I24">
-        <v>0.2053393214489172</v>
+        <v>0.1926199185159219</v>
       </c>
       <c r="J24">
-        <v>0.2053393214489172</v>
+        <v>0.1372239689141745</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N24">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O24">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P24">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q24">
-        <v>332.4721935253899</v>
+        <v>356.7250664528588</v>
       </c>
       <c r="R24">
-        <v>332.4721935253899</v>
+        <v>2140.350398717153</v>
       </c>
       <c r="S24">
-        <v>0.05596356862868716</v>
+        <v>0.0532626477688263</v>
       </c>
       <c r="T24">
-        <v>0.05596356862868716</v>
+        <v>0.03921516501171962</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.710134454920089</v>
+        <v>8.862318500000001</v>
       </c>
       <c r="H25">
-        <v>8.710134454920089</v>
+        <v>17.724637</v>
       </c>
       <c r="I25">
-        <v>0.2053393214489172</v>
+        <v>0.1926199185159219</v>
       </c>
       <c r="J25">
-        <v>0.2053393214489172</v>
+        <v>0.1372239689141745</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N25">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O25">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P25">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q25">
-        <v>432.6439501762725</v>
+        <v>446.7973793705987</v>
       </c>
       <c r="R25">
-        <v>432.6439501762725</v>
+        <v>2680.784276223592</v>
       </c>
       <c r="S25">
-        <v>0.07282503580446681</v>
+        <v>0.06671135190494304</v>
       </c>
       <c r="T25">
-        <v>0.07282503580446681</v>
+        <v>0.04911690993023432</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.710134454920089</v>
+        <v>8.862318500000001</v>
       </c>
       <c r="H26">
-        <v>8.710134454920089</v>
+        <v>17.724637</v>
       </c>
       <c r="I26">
-        <v>0.2053393214489172</v>
+        <v>0.1926199185159219</v>
       </c>
       <c r="J26">
-        <v>0.2053393214489172</v>
+        <v>0.1372239689141745</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N26">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O26">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P26">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q26">
-        <v>122.0869410629889</v>
+        <v>125.3804264316188</v>
       </c>
       <c r="R26">
-        <v>122.0869410629889</v>
+        <v>501.521705726475</v>
       </c>
       <c r="S26">
-        <v>0.02055035289537166</v>
+        <v>0.01872056134584828</v>
       </c>
       <c r="T26">
-        <v>0.02055035289537166</v>
+        <v>0.009188802197439557</v>
       </c>
     </row>
   </sheetData>
